--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_19_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_19_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3018741.708573211</v>
+        <v>3019452.268723505</v>
       </c>
     </row>
     <row r="7">
@@ -679,34 +679,34 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>6.05642108929943</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -743,13 +743,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -822,46 +822,46 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>6.05642108929943</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="I6" t="n">
         <v>6.876045741711437</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1053,53 +1053,53 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="I7" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="G7" t="n">
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.05642108929943</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S8" t="n">
-        <v>6.876045741711437</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="D9" t="n">
-        <v>6.876045741711437</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="E9" t="n">
         <v>6.876045741711437</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="X10" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295265</v>
       </c>
       <c r="T11" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U11" t="n">
-        <v>219.3243840645704</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V11" t="n">
         <v>296.142056117921</v>
@@ -1539,16 +1539,16 @@
         <v>114.8237602943553</v>
       </c>
       <c r="F13" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G13" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H13" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I13" t="n">
-        <v>54.52629139452945</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221513</v>
       </c>
       <c r="S13" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T13" t="n">
         <v>186.4872700401421</v>
       </c>
       <c r="U13" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V13" t="n">
         <v>220.5274409716141</v>
@@ -1624,7 +1624,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H14" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>60.32014642295179</v>
       </c>
       <c r="T14" t="n">
-        <v>168.9926026545726</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U14" t="n">
-        <v>219.324384064569</v>
+        <v>219.3243840645704</v>
       </c>
       <c r="V14" t="n">
         <v>296.142056117921</v>
@@ -1776,7 +1776,7 @@
         <v>114.8237602943553</v>
       </c>
       <c r="F16" t="n">
-        <v>113.8108456707166</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G16" t="n">
         <v>134.0758985510282</v>
@@ -1785,7 +1785,7 @@
         <v>110.1245053442998</v>
       </c>
       <c r="I16" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453007</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221603</v>
       </c>
       <c r="S16" t="n">
         <v>152.2386502424834</v>
@@ -1821,7 +1821,7 @@
         <v>186.4872700401421</v>
       </c>
       <c r="U16" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612644</v>
       </c>
       <c r="V16" t="n">
         <v>220.5274409716141</v>
@@ -1846,7 +1846,7 @@
         <v>351.1236393112667</v>
       </c>
       <c r="C17" t="n">
-        <v>333.662689418794</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D17" t="n">
         <v>323.0728392684691</v>
@@ -1897,7 +1897,7 @@
         <v>60.32014642295179</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545735</v>
       </c>
       <c r="U17" t="n">
         <v>219.3243840645689</v>
@@ -2022,7 +2022,7 @@
         <v>110.1245053442998</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>42.04747230221581</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424834</v>
+        <v>152.238650242483</v>
       </c>
       <c r="T19" t="n">
         <v>186.4872700401421</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612646</v>
       </c>
       <c r="V19" t="n">
         <v>220.5274409716141</v>
@@ -2086,19 +2086,19 @@
         <v>333.6626894187937</v>
       </c>
       <c r="D20" t="n">
-        <v>323.0728392684696</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E20" t="n">
         <v>350.3201677200479</v>
       </c>
       <c r="F20" t="n">
-        <v>375.2658433894975</v>
+        <v>375.265843389499</v>
       </c>
       <c r="G20" t="n">
         <v>378.5542040247498</v>
       </c>
       <c r="H20" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
@@ -2180,7 +2180,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424834</v>
@@ -2295,7 +2295,7 @@
         <v>186.4872700401421</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612646</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V22" t="n">
         <v>220.5274409716141</v>
@@ -2335,7 +2335,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H23" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645695</v>
       </c>
       <c r="V23" t="n">
         <v>296.142056117921</v>
@@ -2417,7 +2417,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424834</v>
@@ -2544,7 +2544,7 @@
         <v>194.0994530368233</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998803</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="26">
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112681</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D26" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F26" t="n">
         <v>375.2658433894975</v>
@@ -2611,7 +2611,7 @@
         <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.324384064569</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V26" t="n">
         <v>296.142056117921</v>
@@ -2623,7 +2623,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I27" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,10 +2721,10 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707177</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G28" t="n">
         <v>134.0758985510282</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612655</v>
       </c>
       <c r="V28" t="n">
         <v>220.5274409716141</v>
@@ -2781,7 +2781,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="29">
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D29" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F29" t="n">
         <v>375.2658433894975</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295265</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645686</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V29" t="n">
         <v>296.142056117921</v>
@@ -2860,7 +2860,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I30" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G31" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442994</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221578</v>
+        <v>42.0474723022158</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424839</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T31" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612646</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V31" t="n">
         <v>220.5274409716141</v>
@@ -3015,10 +3015,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="32">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D32" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894975</v>
+        <v>375.265843389499</v>
       </c>
       <c r="G32" t="n">
         <v>378.5542040247498</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645686</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V32" t="n">
         <v>296.142056117921</v>
@@ -3097,7 +3097,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I33" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G34" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221603</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T34" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612644</v>
       </c>
       <c r="V34" t="n">
         <v>220.5274409716141</v>
@@ -3252,10 +3252,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D35" t="n">
-        <v>323.0728392684689</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G35" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H35" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295167</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V35" t="n">
-        <v>296.1420561179208</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W35" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X35" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038414</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I36" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C37" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G37" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453002</v>
+        <v>54.52629139453016</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221565</v>
+        <v>42.04747230221513</v>
       </c>
       <c r="S37" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T37" t="n">
-        <v>186.4872700401419</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U37" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V37" t="n">
-        <v>220.5274409716139</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W37" t="n">
-        <v>254.9127959843769</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D38" t="n">
-        <v>323.0728392684689</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F38" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G38" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
-        <v>255.2416659947558</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295086</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645695</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V38" t="n">
-        <v>296.1420561179208</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W38" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X38" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I39" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C40" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G40" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453002</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221565</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T40" t="n">
-        <v>186.4872700401419</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U40" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612646</v>
       </c>
       <c r="V40" t="n">
-        <v>220.5274409716139</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W40" t="n">
-        <v>254.9127959843769</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="41">
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,7 +3757,7 @@
         <v>410.1644063769637</v>
       </c>
       <c r="H41" t="n">
-        <v>286.8518683469699</v>
+        <v>286.8518683469698</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>19.1186165226394</v>
+        <v>31.3178859164329</v>
       </c>
       <c r="T41" t="n">
         <v>200.6028050067863</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I42" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>73.11986703963457</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.6861009032421</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>73.65767465442971</v>
+        <v>73.6576746544297</v>
       </c>
       <c r="S43" t="n">
         <v>183.8488525946973</v>
@@ -3954,7 +3954,7 @@
         <v>218.097472392356</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>129.156954243157</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.1644063769637</v>
       </c>
       <c r="H44" t="n">
-        <v>242.0930634268847</v>
+        <v>286.8518683469698</v>
       </c>
       <c r="I44" t="n">
-        <v>12.38037836605494</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>91.9303487751657</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>200.6028050067863</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9345864167828</v>
+        <v>100.92490726774</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4076,7 +4076,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I45" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.6861009032421</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>98.57802548700643</v>
       </c>
       <c r="I46" t="n">
-        <v>86.13649374674407</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>73.6576746544297</v>
       </c>
       <c r="S46" t="n">
-        <v>80.7671940617825</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>218.097472392356</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C2" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D2" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E2" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="F2" t="n">
-        <v>14.44108515774386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="G2" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H2" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="I2" t="n">
         <v>0.5500836593369149</v>
@@ -4333,19 +4333,19 @@
         <v>7.357368943631237</v>
       </c>
       <c r="K2" t="n">
-        <v>7.357368943631237</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="L2" t="n">
         <v>14.16465422792556</v>
       </c>
       <c r="M2" t="n">
-        <v>20.97193951221988</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N2" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O2" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P2" t="n">
         <v>27.50418296684575</v>
@@ -4354,28 +4354,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R2" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S2" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T2" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U2" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V2" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W2" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X2" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="C3" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="D3" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="E3" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="F3" t="n">
         <v>7.495584408540386</v>
@@ -4433,28 +4433,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R3" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S3" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T3" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="U3" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="V3" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W3" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X3" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="Y3" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C4" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D4" t="n">
-        <v>21.38658590694733</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="E4" t="n">
-        <v>14.44108515774386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="F4" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="I4" t="n">
         <v>0.5500836593369149</v>
@@ -4491,49 +4491,49 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K4" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L4" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M4" t="n">
-        <v>14.16465422792556</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="N4" t="n">
-        <v>20.97193951221988</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O4" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P4" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R4" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S4" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T4" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U4" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V4" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W4" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X4" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="C5" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="D5" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="E5" t="n">
         <v>14.44108515774386</v>
@@ -4567,22 +4567,22 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="J5" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="K5" t="n">
         <v>7.357368943631237</v>
-      </c>
-      <c r="K5" t="n">
-        <v>14.16465422792556</v>
       </c>
       <c r="L5" t="n">
         <v>14.16465422792556</v>
       </c>
       <c r="M5" t="n">
-        <v>14.16465422792556</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="N5" t="n">
-        <v>20.97193951221988</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="O5" t="n">
-        <v>20.97193951221988</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P5" t="n">
         <v>27.50418296684575</v>
@@ -4591,28 +4591,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R5" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S5" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T5" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U5" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V5" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W5" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X5" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.495584408540386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="C6" t="n">
-        <v>7.495584408540386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="D6" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E6" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="F6" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="G6" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="H6" t="n">
         <v>7.495584408540386</v>
@@ -4655,7 +4655,7 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M6" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N6" t="n">
         <v>20.69689768255142</v>
@@ -4670,28 +4670,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R6" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S6" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T6" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U6" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V6" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W6" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X6" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="7">
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C7" t="n">
         <v>14.44108515774386</v>
@@ -4713,13 +4713,13 @@
         <v>14.44108515774386</v>
       </c>
       <c r="F7" t="n">
+        <v>14.44108515774386</v>
+      </c>
+      <c r="G7" t="n">
+        <v>14.44108515774386</v>
+      </c>
+      <c r="H7" t="n">
         <v>7.495584408540386</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.5500836593369149</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.5500836593369149</v>
       </c>
       <c r="I7" t="n">
         <v>0.5500836593369149</v>
@@ -4740,37 +4740,37 @@
         <v>14.16465422792556</v>
       </c>
       <c r="O7" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="P7" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V7" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W7" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X7" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="8">
@@ -4819,16 +4819,16 @@
         <v>14.16465422792556</v>
       </c>
       <c r="O8" t="n">
+        <v>14.16465422792556</v>
+      </c>
+      <c r="P8" t="n">
         <v>20.97193951221988</v>
-      </c>
-      <c r="P8" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S8" t="n">
         <v>14.44108515774386</v>
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C9" t="n">
-        <v>21.38658590694733</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="D9" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="E9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I9" t="n">
         <v>0.5500836593369149</v>
@@ -4892,7 +4892,7 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M9" t="n">
-        <v>12.57800130961213</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N9" t="n">
         <v>19.38528659390645</v>
@@ -4907,28 +4907,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S9" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T9" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U9" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V9" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W9" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X9" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="10">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="C10" t="n">
         <v>7.495584408540386</v>
@@ -4968,13 +4968,13 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L10" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M10" t="n">
+        <v>7.082327113962777</v>
+      </c>
+      <c r="N10" t="n">
         <v>13.8896123982571</v>
-      </c>
-      <c r="N10" t="n">
-        <v>20.69689768255142</v>
       </c>
       <c r="O10" t="n">
         <v>20.69689768255142</v>
@@ -4983,31 +4983,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R10" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S10" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T10" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U10" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V10" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W10" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X10" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
     </row>
     <row r="11">
@@ -5041,13 +5041,13 @@
         <v>84.98040897511626</v>
       </c>
       <c r="J11" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076843</v>
       </c>
       <c r="K11" t="n">
         <v>766.6831886951454</v>
       </c>
       <c r="L11" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M11" t="n">
         <v>2001.213713746739</v>
@@ -5056,7 +5056,7 @@
         <v>2681.771598889756</v>
       </c>
       <c r="O11" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P11" t="n">
         <v>3813.656640612705</v>
@@ -5068,10 +5068,10 @@
         <v>4249.020448755813</v>
       </c>
       <c r="S11" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T11" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U11" t="n">
         <v>3795.851627400162</v>
@@ -5132,16 +5132,16 @@
         <v>1522.315654538068</v>
       </c>
       <c r="N12" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O12" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="P12" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q12" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R12" t="n">
         <v>2555.644190323788</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C13" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D13" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E13" t="n">
-        <v>501.6849958039797</v>
+        <v>501.6849958039807</v>
       </c>
       <c r="F13" t="n">
-        <v>386.724545631538</v>
+        <v>386.7245456315389</v>
       </c>
       <c r="G13" t="n">
-        <v>251.2943450749438</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H13" t="n">
-        <v>140.0574709897925</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I13" t="n">
         <v>84.98040897511626</v>
@@ -5202,16 +5202,16 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K13" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L13" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M13" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N13" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O13" t="n">
         <v>2087.878830313936</v>
@@ -5223,28 +5223,28 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R13" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S13" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T13" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U13" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V13" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W13" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y13" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D14" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E14" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F14" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G14" t="n">
         <v>342.8002736162839</v>
@@ -5278,13 +5278,13 @@
         <v>84.98040897511626</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K14" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L14" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M14" t="n">
         <v>2001.213713746739</v>
@@ -5308,22 +5308,22 @@
         <v>4188.091007924549</v>
       </c>
       <c r="T14" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U14" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V14" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W14" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X14" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y14" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="15">
@@ -5363,16 +5363,16 @@
         <v>519.5985603334506</v>
       </c>
       <c r="L15" t="n">
-        <v>922.4654228388462</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M15" t="n">
-        <v>1471.383887449135</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N15" t="n">
-        <v>2049.239235375538</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O15" t="n">
-        <v>2555.644190323788</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P15" t="n">
         <v>2555.644190323788</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502105</v>
       </c>
       <c r="C16" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D16" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E16" t="n">
-        <v>501.6849958039797</v>
+        <v>501.6849958039806</v>
       </c>
       <c r="F16" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G16" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H16" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I16" t="n">
         <v>84.98040897511626</v>
@@ -5448,7 +5448,7 @@
         <v>1285.552079040894</v>
       </c>
       <c r="N16" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O16" t="n">
         <v>2087.878830313936</v>
@@ -5457,7 +5457,7 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q16" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R16" t="n">
         <v>2487.049233352543</v>
@@ -5466,22 +5466,22 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T16" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U16" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V16" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W16" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y16" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="17">
@@ -5509,58 +5509,58 @@
         <v>342.8002736162839</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076843</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050964</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889757</v>
       </c>
       <c r="O17" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="18">
@@ -5588,19 +5588,19 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J18" t="n">
         <v>216.557510983586</v>
       </c>
       <c r="K18" t="n">
-        <v>519.5985603334506</v>
+        <v>468.6667932445187</v>
       </c>
       <c r="L18" t="n">
-        <v>973.3971899277781</v>
+        <v>922.4654228388462</v>
       </c>
       <c r="M18" t="n">
         <v>1471.383887449135</v>
@@ -5658,10 +5658,10 @@
         <v>617.668592060905</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G19" t="n">
         <v>251.2943450749445</v>
@@ -5670,22 +5670,22 @@
         <v>140.0574709897932</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J19" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902791</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040894</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
         <v>2087.878830313936</v>
@@ -5694,13 +5694,13 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T19" t="n">
         <v>2144.901839127669</v>
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216584</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943808</v>
       </c>
       <c r="F20" t="n">
         <v>725.1782574796675</v>
@@ -5746,58 +5746,58 @@
         <v>342.8002736162839</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J20" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889757</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P20" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V20" t="n">
         <v>3496.718237382061</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501805</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851462</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J21" t="n">
         <v>216.557510983586</v>
       </c>
       <c r="K21" t="n">
-        <v>519.5985603334505</v>
+        <v>216.557510983586</v>
       </c>
       <c r="L21" t="n">
-        <v>922.4654228388466</v>
+        <v>326.5159252754105</v>
       </c>
       <c r="M21" t="n">
-        <v>1471.383887449136</v>
+        <v>875.4343898856998</v>
       </c>
       <c r="N21" t="n">
-        <v>2049.239235375538</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O21" t="n">
-        <v>2555.644190323788</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P21" t="n">
-        <v>2555.644190323788</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q21" t="n">
         <v>2555.644190323788</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502101</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G22" t="n">
         <v>251.2943450749445</v>
@@ -5907,19 +5907,19 @@
         <v>140.0574709897932</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J22" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N22" t="n">
         <v>1709.719201354973</v>
@@ -5931,16 +5931,16 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U22" t="n">
         <v>1887.747186237502</v>
@@ -5955,7 +5955,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="23">
@@ -5971,22 +5971,22 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E23" t="n">
         <v>1104.234664943807</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796681</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162844</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511675</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J23" t="n">
         <v>337.4933016076839</v>
@@ -5995,13 +5995,13 @@
         <v>766.6831886951454</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M23" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O23" t="n">
         <v>3311.067850233288</v>
@@ -6013,13 +6013,13 @@
         <v>4142.907144767229</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U23" t="n">
         <v>3795.851627400163</v>
@@ -6065,25 +6065,25 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J24" t="n">
         <v>216.557510983586</v>
       </c>
       <c r="K24" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L24" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.315654538067</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N24" t="n">
-        <v>2049.239235375538</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O24" t="n">
-        <v>2555.644190323788</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P24" t="n">
         <v>2555.644190323788</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502105</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D25" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E25" t="n">
         <v>501.6849958039805</v>
@@ -6144,7 +6144,7 @@
         <v>140.0574709897932</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J25" t="n">
         <v>185.1742787042785</v>
@@ -6153,7 +6153,7 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M25" t="n">
         <v>1285.552079040893</v>
@@ -6168,28 +6168,28 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y25" t="n">
         <v>1022.581387254982</v>
@@ -6214,64 +6214,64 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K26" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M26" t="n">
         <v>2001.21371374674</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889757</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P26" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501805</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851462</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J27" t="n">
         <v>216.557510983586</v>
       </c>
       <c r="K27" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L27" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M27" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N27" t="n">
-        <v>2049.239235375538</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O27" t="n">
-        <v>2555.644190323788</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P27" t="n">
         <v>2555.644190323788</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039806</v>
+        <v>501.6849958039807</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315389</v>
       </c>
       <c r="G28" t="n">
         <v>251.2943450749444</v>
@@ -6381,10 +6381,10 @@
         <v>140.0574709897932</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
         <v>459.5287020443612</v>
@@ -6396,25 +6396,25 @@
         <v>1285.552079040894</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313937</v>
       </c>
       <c r="P28" t="n">
         <v>2392.455631028689</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U28" t="n">
         <v>1887.747186237502</v>
@@ -6429,7 +6429,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="29">
@@ -6451,46 +6451,46 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076834</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889757</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P29" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T29" t="n">
         <v>4017.391409283565</v>
@@ -6536,28 +6536,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J30" t="n">
-        <v>165.6257438946547</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K30" t="n">
-        <v>468.6667932445192</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L30" t="n">
-        <v>922.4654228388466</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M30" t="n">
-        <v>1471.383887449136</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N30" t="n">
-        <v>2049.239235375538</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O30" t="n">
-        <v>2555.644190323788</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P30" t="n">
         <v>2555.644190323788</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502105</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609043</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G31" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J31" t="n">
         <v>185.1742787042785</v>
@@ -6627,46 +6627,46 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216584</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943808</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076838</v>
       </c>
       <c r="K32" t="n">
         <v>766.6831886951452</v>
@@ -6709,43 +6709,43 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501805</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851462</v>
       </c>
     </row>
     <row r="33">
@@ -6773,28 +6773,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J33" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K33" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L33" t="n">
-        <v>922.4654228388466</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M33" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N33" t="n">
-        <v>2049.239235375538</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O33" t="n">
-        <v>2555.644190323788</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P33" t="n">
         <v>2555.644190323788</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502105</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609046</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J34" t="n">
         <v>185.1742787042785</v>
@@ -6873,10 +6873,10 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
         <v>2529.521427597205</v>
@@ -6891,19 +6891,19 @@
         <v>2144.901839127668</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="35">
@@ -6919,58 +6919,58 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796681</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162844</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511675</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076843</v>
       </c>
       <c r="K35" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889757</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V35" t="n">
         <v>3496.718237382061</v>
@@ -6982,7 +6982,7 @@
         <v>2834.342818501804</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J36" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K36" t="n">
-        <v>468.6667932445192</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L36" t="n">
-        <v>922.4654228388466</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M36" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N36" t="n">
-        <v>2049.239235375538</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O36" t="n">
-        <v>2555.644190323788</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P36" t="n">
         <v>2555.644190323788</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502093</v>
+        <v>872.8624197502105</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477712</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609042</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315382</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749441</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H37" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042786</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443615</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L37" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.55207904089</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.71920135497</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313933</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028686</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597203</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352541</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966194</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.7471862375</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D38" t="n">
         <v>1458.093420216582</v>
@@ -7165,28 +7165,28 @@
         <v>725.1782574796675</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K38" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M38" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O38" t="n">
         <v>3311.067850233288</v>
@@ -7195,31 +7195,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J39" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K39" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L39" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.315654538067</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N39" t="n">
-        <v>2049.239235375538</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O39" t="n">
-        <v>2555.644190323788</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P39" t="n">
         <v>2555.644190323788</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502093</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477712</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609042</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315382</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749441</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H40" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042786</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443615</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L40" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M40" t="n">
         <v>1285.552079040894</v>
@@ -7350,34 +7350,34 @@
         <v>2087.878830313936</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028686</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597203</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352541</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966194</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.7471862375</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2313.039625065619</v>
+        <v>1927.251372467374</v>
       </c>
       <c r="C41" t="n">
-        <v>1944.077108125207</v>
+        <v>1558.288855526963</v>
       </c>
       <c r="D41" t="n">
-        <v>1585.811409518456</v>
+        <v>1200.023156920212</v>
       </c>
       <c r="E41" t="n">
         <v>1200.023156920212</v>
@@ -7402,7 +7402,7 @@
         <v>789.0372521306047</v>
       </c>
       <c r="G41" t="n">
-        <v>374.7297709417525</v>
+        <v>374.7297709417524</v>
       </c>
       <c r="H41" t="n">
         <v>84.98040897511625</v>
@@ -7411,10 +7411,10 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076838</v>
       </c>
       <c r="K41" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050963</v>
@@ -7423,7 +7423,7 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O41" t="n">
         <v>3311.067850233288</v>
@@ -7438,25 +7438,25 @@
         <v>4249.020448755812</v>
       </c>
       <c r="S41" t="n">
-        <v>4229.70871489456</v>
+        <v>4217.386220557395</v>
       </c>
       <c r="T41" t="n">
-        <v>4027.079618928109</v>
+        <v>4014.757124590944</v>
       </c>
       <c r="U41" t="n">
-        <v>3773.610339719237</v>
+        <v>3761.287845382073</v>
       </c>
       <c r="V41" t="n">
-        <v>3442.547452375667</v>
+        <v>3430.224958038502</v>
       </c>
       <c r="W41" t="n">
-        <v>3089.778797105552</v>
+        <v>3077.456302768388</v>
       </c>
       <c r="X41" t="n">
-        <v>3089.778797105552</v>
+        <v>2703.990544507308</v>
       </c>
       <c r="Y41" t="n">
-        <v>2699.639465129741</v>
+        <v>2313.851212531496</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I42" t="n">
         <v>84.98040897511625</v>
@@ -7493,19 +7493,19 @@
         <v>216.557510983586</v>
       </c>
       <c r="K42" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L42" t="n">
-        <v>922.4654228388466</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M42" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N42" t="n">
-        <v>2049.239235375538</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O42" t="n">
-        <v>2555.644190323788</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P42" t="n">
         <v>2555.644190323788</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>624.2282914070943</v>
+        <v>714.5593006080416</v>
       </c>
       <c r="C43" t="n">
-        <v>550.3698398519078</v>
+        <v>545.6231176801347</v>
       </c>
       <c r="D43" t="n">
-        <v>400.2532004395721</v>
+        <v>395.5064782677989</v>
       </c>
       <c r="E43" t="n">
-        <v>252.340106857179</v>
+        <v>395.5064782677989</v>
       </c>
       <c r="F43" t="n">
-        <v>252.340106857179</v>
+        <v>395.5064782677989</v>
       </c>
       <c r="G43" t="n">
-        <v>84.98040897511625</v>
+        <v>228.1467803857361</v>
       </c>
       <c r="H43" t="n">
         <v>84.98040897511625</v>
@@ -7569,7 +7569,7 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J43" t="n">
-        <v>153.8801783755867</v>
+        <v>153.8801783755868</v>
       </c>
       <c r="K43" t="n">
         <v>396.9405013869778</v>
@@ -7602,19 +7602,19 @@
         <v>1798.760544521729</v>
       </c>
       <c r="U43" t="n">
-        <v>1798.760544521729</v>
+        <v>1668.298974579146</v>
       </c>
       <c r="V43" t="n">
-        <v>1544.076056315842</v>
+        <v>1413.614486373259</v>
       </c>
       <c r="W43" t="n">
-        <v>1254.658886278881</v>
+        <v>1124.197316336299</v>
       </c>
       <c r="X43" t="n">
-        <v>1026.669335380864</v>
+        <v>896.2077654382813</v>
       </c>
       <c r="Y43" t="n">
-        <v>805.876756237334</v>
+        <v>896.2077654382813</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1866.026662509059</v>
+        <v>2313.039625065619</v>
       </c>
       <c r="C44" t="n">
-        <v>1497.064145568648</v>
+        <v>1944.077108125207</v>
       </c>
       <c r="D44" t="n">
-        <v>1138.798446961897</v>
+        <v>1585.811409518456</v>
       </c>
       <c r="E44" t="n">
-        <v>753.0101943636528</v>
+        <v>1200.023156920212</v>
       </c>
       <c r="F44" t="n">
-        <v>342.0242895740452</v>
+        <v>789.0372521306047</v>
       </c>
       <c r="G44" t="n">
-        <v>342.0242895740452</v>
+        <v>374.7297709417524</v>
       </c>
       <c r="H44" t="n">
-        <v>97.48584166810105</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I44" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076838</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L44" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N44" t="n">
         <v>2681.771598889756</v>
@@ -7666,7 +7666,7 @@
         <v>3311.067850233288</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
         <v>4142.907144767229</v>
@@ -7675,25 +7675,25 @@
         <v>4249.020448755812</v>
       </c>
       <c r="S44" t="n">
-        <v>4156.16151059908</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="T44" t="n">
-        <v>3953.532414632629</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="U44" t="n">
-        <v>3700.063135423758</v>
+        <v>4147.076097980317</v>
       </c>
       <c r="V44" t="n">
-        <v>3369.000248080187</v>
+        <v>3816.013210636746</v>
       </c>
       <c r="W44" t="n">
-        <v>3016.231592810072</v>
+        <v>3463.244555366632</v>
       </c>
       <c r="X44" t="n">
-        <v>2642.765834548993</v>
+        <v>3089.778797105552</v>
       </c>
       <c r="Y44" t="n">
-        <v>2252.626502573181</v>
+        <v>2699.639465129741</v>
       </c>
     </row>
     <row r="45">
@@ -7721,28 +7721,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I45" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J45" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K45" t="n">
-        <v>388.0214583249807</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L45" t="n">
-        <v>841.8200879193082</v>
+        <v>535.3638672866904</v>
       </c>
       <c r="M45" t="n">
-        <v>1390.738552529597</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N45" t="n">
-        <v>1968.593900456</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O45" t="n">
-        <v>2474.99885540425</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P45" t="n">
         <v>2555.644190323788</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.085890205535</v>
+        <v>520.8500529032742</v>
       </c>
       <c r="C46" t="n">
-        <v>634.1497072776281</v>
+        <v>351.9138699753673</v>
       </c>
       <c r="D46" t="n">
-        <v>634.1497072776281</v>
+        <v>351.9138699753673</v>
       </c>
       <c r="E46" t="n">
-        <v>486.236613695235</v>
+        <v>351.9138699753673</v>
       </c>
       <c r="F46" t="n">
-        <v>339.3466661973246</v>
+        <v>351.9138699753673</v>
       </c>
       <c r="G46" t="n">
-        <v>171.9869683152618</v>
+        <v>184.5541720933046</v>
       </c>
       <c r="H46" t="n">
-        <v>171.9869683152618</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I46" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J46" t="n">
-        <v>153.8801783755867</v>
+        <v>153.8801783755868</v>
       </c>
       <c r="K46" t="n">
         <v>396.9405013869778</v>
@@ -7830,28 +7830,28 @@
         <v>2279.168624967671</v>
       </c>
       <c r="R46" t="n">
-        <v>2279.168624967671</v>
+        <v>2204.76693339754</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.585600662841</v>
+        <v>2204.76693339754</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.285123498845</v>
+        <v>1984.466456233544</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.200973283209</v>
+        <v>1695.382306017909</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.516485077322</v>
+        <v>1440.697817812022</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.516485077322</v>
+        <v>1151.280647775061</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.526934179305</v>
+        <v>923.2910968770441</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.7343550357747</v>
+        <v>702.4985177335139</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>81.8765250218554</v>
       </c>
       <c r="K2" t="n">
-        <v>61.1552480410499</v>
+        <v>68.03129378276134</v>
       </c>
       <c r="L2" t="n">
-        <v>45.47003172636781</v>
+        <v>38.59398598465637</v>
       </c>
       <c r="M2" t="n">
-        <v>17.82996066300709</v>
+        <v>10.95391492129565</v>
       </c>
       <c r="N2" t="n">
-        <v>6.470748212816034</v>
+        <v>13.06897392455933</v>
       </c>
       <c r="O2" t="n">
         <v>19.58010490455564</v>
       </c>
       <c r="P2" t="n">
-        <v>58.15888806317075</v>
+        <v>58.43670809313889</v>
       </c>
       <c r="Q2" t="n">
         <v>87.37925012608741</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>70.77406249520689</v>
+        <v>63.89801675349545</v>
       </c>
       <c r="L4" t="n">
         <v>51.55958566040327</v>
       </c>
       <c r="M4" t="n">
-        <v>57.94720466944015</v>
+        <v>57.669384639472</v>
       </c>
       <c r="N4" t="n">
         <v>48.79595180529877</v>
       </c>
       <c r="O4" t="n">
-        <v>65.83631552883354</v>
+        <v>66.11413555880169</v>
       </c>
       <c r="P4" t="n">
-        <v>69.9429358322228</v>
+        <v>76.81898157393424</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>76.77932221542383</v>
+        <v>69.9032764737122</v>
       </c>
       <c r="K5" t="n">
-        <v>60.391908089439</v>
+        <v>60.39190808943872</v>
       </c>
       <c r="L5" t="n">
-        <v>29.11665251139814</v>
+        <v>35.99269825310921</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4085553456338573</v>
+        <v>7.284601087344896</v>
       </c>
       <c r="N5" t="n">
-        <v>2.630799436097476</v>
+        <v>2.352979406128924</v>
       </c>
       <c r="O5" t="n">
-        <v>9.461295150631173</v>
+        <v>9.461295150630775</v>
       </c>
       <c r="P5" t="n">
-        <v>49.52271804513376</v>
+        <v>42.92449233339013</v>
       </c>
       <c r="Q5" t="n">
-        <v>80.89384610466695</v>
+        <v>80.89384610466669</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>60.64183880154225</v>
+        <v>60.64183880154214</v>
       </c>
       <c r="K6" t="n">
-        <v>24.7022940028959</v>
+        <v>24.7022940028957</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1815374421011029</v>
+        <v>0.1815374421008755</v>
       </c>
       <c r="Q6" t="n">
-        <v>50.54478369436923</v>
+        <v>50.54478369436907</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8376,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>60.76817319333465</v>
+        <v>60.76817319333452</v>
       </c>
       <c r="L7" t="n">
-        <v>54.43050921253179</v>
+        <v>54.43050921253163</v>
       </c>
       <c r="M7" t="n">
-        <v>46.84831913838187</v>
+        <v>46.8483191383817</v>
       </c>
       <c r="N7" t="n">
-        <v>44.67352170763156</v>
+        <v>44.67352170763141</v>
       </c>
       <c r="O7" t="n">
-        <v>62.02858409899157</v>
+        <v>62.30640412895958</v>
       </c>
       <c r="P7" t="n">
-        <v>73.5608095297731</v>
+        <v>73.28298949980483</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>68.65190234826173</v>
+        <v>68.65190234826171</v>
       </c>
       <c r="K8" t="n">
         <v>51.64037691895487</v>
       </c>
       <c r="L8" t="n">
-        <v>26.78994699523966</v>
+        <v>26.78994699523963</v>
       </c>
       <c r="M8" t="n">
-        <v>4.695692892461238</v>
+        <v>4.69569289246121</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>13.85315158552481</v>
+        <v>6.977105843813376</v>
       </c>
       <c r="P8" t="n">
-        <v>47.40251994551564</v>
+        <v>47.68033997548378</v>
       </c>
       <c r="Q8" t="n">
-        <v>79.30166562967011</v>
+        <v>85.89989134141341</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>59.89652894519482</v>
+        <v>59.8965289451948</v>
       </c>
       <c r="K9" t="n">
-        <v>23.42844074719081</v>
+        <v>23.42844074719079</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>59.99978994537918</v>
+        <v>59.99978994537916</v>
       </c>
       <c r="L10" t="n">
-        <v>53.44724320024197</v>
+        <v>46.57119745853053</v>
       </c>
       <c r="M10" t="n">
-        <v>52.40982870423343</v>
+        <v>52.40982870423341</v>
       </c>
       <c r="N10" t="n">
         <v>43.66145635451461</v>
       </c>
       <c r="O10" t="n">
-        <v>54.49555222612061</v>
+        <v>61.37159796783205</v>
       </c>
       <c r="P10" t="n">
-        <v>72.76092136617376</v>
+        <v>72.76092136617375</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -22798,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>7.11718644282406</v>
+        <v>7.117186442824059</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>72.8117322525263</v>
+        <v>60.61246285873278</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>94.12695405899326</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>141.7347076965137</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>86.13649374674407</v>
+        <v>86.13649374674405</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1933087134791</v>
+        <v>157.0363544703221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.1644063769637</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>44.75880492008517</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>91.93034877516568</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>200.6028050067863</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>150.0096791490428</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>141.7347076965137</v>
+        <v>43.15668220950722</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>86.13649374674405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>73.65767465442971</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>103.0816585329148</v>
+        <v>183.8488525946973</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>740983.5129935998</v>
+        <v>740983.5129935996</v>
       </c>
     </row>
     <row r="4">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>717911.6536746911</v>
+        <v>717911.653674691</v>
       </c>
       <c r="C2" t="n">
-        <v>717915.8365955055</v>
+        <v>717915.8365955054</v>
       </c>
       <c r="D2" t="n">
-        <v>717916.8635114578</v>
+        <v>717916.8635114577</v>
       </c>
       <c r="E2" t="n">
-        <v>718411.5486312464</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="F2" t="n">
-        <v>718411.5486312464</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="G2" t="n">
         <v>718411.5486312479</v>
       </c>
       <c r="H2" t="n">
+        <v>718411.5486312482</v>
+      </c>
+      <c r="I2" t="n">
+        <v>718411.5486312467</v>
+      </c>
+      <c r="J2" t="n">
+        <v>718411.5486312484</v>
+      </c>
+      <c r="K2" t="n">
         <v>718411.5486312479</v>
       </c>
-      <c r="I2" t="n">
-        <v>718411.5486312462</v>
-      </c>
-      <c r="J2" t="n">
-        <v>718411.5486312467</v>
-      </c>
-      <c r="K2" t="n">
-        <v>718411.5486312482</v>
-      </c>
       <c r="L2" t="n">
-        <v>718411.5486312466</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="M2" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312464</v>
       </c>
       <c r="N2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312464</v>
       </c>
       <c r="O2" t="n">
         <v>670900.2842073968</v>
@@ -26368,13 +26368,13 @@
         <v>301795.6732510812</v>
       </c>
       <c r="C3" t="n">
-        <v>13603.48592642744</v>
+        <v>13603.48592642798</v>
       </c>
       <c r="D3" t="n">
-        <v>3140.94713816799</v>
+        <v>3140.94713816753</v>
       </c>
       <c r="E3" t="n">
-        <v>1102632.028902827</v>
+        <v>1102632.028902826</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>27087.23799381547</v>
+        <v>27087.23799381553</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>263004.6848749185</v>
+        <v>263004.6848749184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>356249.4362792823</v>
+        <v>356249.4362792824</v>
       </c>
       <c r="C4" t="n">
-        <v>352446.2358825776</v>
+        <v>352446.2358825775</v>
       </c>
       <c r="D4" t="n">
         <v>351539.2247737839</v>
@@ -26429,31 +26429,31 @@
         <v>43399.53897605922</v>
       </c>
       <c r="F4" t="n">
+        <v>43399.53897605921</v>
+      </c>
+      <c r="G4" t="n">
+        <v>43399.5389760592</v>
+      </c>
+      <c r="H4" t="n">
+        <v>43399.53897605921</v>
+      </c>
+      <c r="I4" t="n">
+        <v>43399.53897605921</v>
+      </c>
+      <c r="J4" t="n">
+        <v>43399.53897605924</v>
+      </c>
+      <c r="K4" t="n">
         <v>43399.53897605922</v>
       </c>
-      <c r="G4" t="n">
+      <c r="L4" t="n">
         <v>43399.53897605922</v>
       </c>
-      <c r="H4" t="n">
+      <c r="M4" t="n">
         <v>43399.53897605922</v>
       </c>
-      <c r="I4" t="n">
+      <c r="N4" t="n">
         <v>43399.53897605922</v>
-      </c>
-      <c r="J4" t="n">
-        <v>43399.53897605925</v>
-      </c>
-      <c r="K4" t="n">
-        <v>43399.53897605925</v>
-      </c>
-      <c r="L4" t="n">
-        <v>43399.53897605924</v>
-      </c>
-      <c r="M4" t="n">
-        <v>43399.53897605932</v>
-      </c>
-      <c r="N4" t="n">
-        <v>43399.53897605932</v>
       </c>
       <c r="O4" t="n">
         <v>12329.65389383922</v>
@@ -26472,7 +26472,7 @@
         <v>40821.11334920088</v>
       </c>
       <c r="C5" t="n">
-        <v>41146.78361260478</v>
+        <v>41146.78361260479</v>
       </c>
       <c r="D5" t="n">
         <v>41226.73635463382</v>
@@ -26484,22 +26484,22 @@
         <v>95106.43410215531</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215531</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215531</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215531</v>
       </c>
       <c r="J5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215531</v>
       </c>
       <c r="K5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215531</v>
       </c>
       <c r="L5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215531</v>
       </c>
       <c r="M5" t="n">
         <v>95106.4341021553</v>
@@ -26508,10 +26508,10 @@
         <v>95106.4341021553</v>
       </c>
       <c r="O5" t="n">
-        <v>92448.99600060702</v>
+        <v>92448.99600060703</v>
       </c>
       <c r="P5" t="n">
-        <v>92448.99600060702</v>
+        <v>92448.99600060703</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19031.14808208221</v>
+        <v>19044.00252382207</v>
       </c>
       <c r="C6" t="n">
-        <v>310705.1679728745</v>
+        <v>310717.914853793</v>
       </c>
       <c r="D6" t="n">
-        <v>321995.8213843066</v>
+        <v>322008.5418588158</v>
       </c>
       <c r="E6" t="n">
-        <v>-522726.4533497947</v>
+        <v>-522726.4533497929</v>
       </c>
       <c r="F6" t="n">
-        <v>579905.575553032</v>
+        <v>579905.5755530335</v>
       </c>
       <c r="G6" t="n">
         <v>579905.5755530335</v>
       </c>
       <c r="H6" t="n">
-        <v>579905.5755530336</v>
+        <v>579905.5755530337</v>
       </c>
       <c r="I6" t="n">
-        <v>579905.5755530318</v>
+        <v>579905.5755530322</v>
       </c>
       <c r="J6" t="n">
-        <v>552818.3375592167</v>
+        <v>552818.3375592183</v>
       </c>
       <c r="K6" t="n">
-        <v>579905.5755530336</v>
+        <v>579905.5755530335</v>
       </c>
       <c r="L6" t="n">
+        <v>579905.5755530335</v>
+      </c>
+      <c r="M6" t="n">
+        <v>316900.8906781136</v>
+      </c>
+      <c r="N6" t="n">
         <v>579905.575553032</v>
       </c>
-      <c r="M6" t="n">
-        <v>316900.8906781152</v>
-      </c>
-      <c r="N6" t="n">
-        <v>579905.5755530333</v>
-      </c>
       <c r="O6" t="n">
-        <v>564764.1696151263</v>
+        <v>565985.8878431681</v>
       </c>
       <c r="P6" t="n">
-        <v>564764.1696151264</v>
+        <v>565985.8878431683</v>
       </c>
     </row>
   </sheetData>
@@ -26697,31 +26697,31 @@
         <v>31.6102023522139</v>
       </c>
       <c r="F2" t="n">
+        <v>31.61020235221389</v>
+      </c>
+      <c r="G2" t="n">
+        <v>31.61020235221388</v>
+      </c>
+      <c r="H2" t="n">
+        <v>31.61020235221388</v>
+      </c>
+      <c r="I2" t="n">
+        <v>31.61020235221388</v>
+      </c>
+      <c r="J2" t="n">
+        <v>31.61020235221391</v>
+      </c>
+      <c r="K2" t="n">
         <v>31.6102023522139</v>
       </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
         <v>31.6102023522139</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
         <v>31.6102023522139</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>31.6102023522139</v>
-      </c>
-      <c r="J2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31.61020235221405</v>
-      </c>
-      <c r="N2" t="n">
-        <v>31.61020235221405</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>310.8004480782032</v>
       </c>
       <c r="C3" t="n">
-        <v>325.739450986639</v>
+        <v>325.7394509866396</v>
       </c>
       <c r="D3" t="n">
         <v>329.4070079604484</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.101341240428155e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>310.8004480782032</v>
       </c>
       <c r="C3" t="n">
-        <v>14.93900290843578</v>
+        <v>14.93900290843637</v>
       </c>
       <c r="D3" t="n">
-        <v>3.667556973809385</v>
+        <v>3.667556973808848</v>
       </c>
       <c r="E3" t="n">
-        <v>948.7528626596749</v>
+        <v>948.7528626596747</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.876045741711323</v>
+        <v>6.87604574171155</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1055.379066447242</v>
+        <v>1055.379066447241</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>326.6788821604671</v>
       </c>
       <c r="I2" t="n">
-        <v>155.4304598104636</v>
+        <v>156.2500844628756</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.32699374997112</v>
+        <v>64.50736909755911</v>
       </c>
       <c r="S2" t="n">
         <v>180.5482496442069</v>
@@ -27463,13 +27463,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>140.5690198229273</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>150.7690347136895</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>139.0127913040845</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.6750029918726</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>58.65131393570874</v>
+        <v>51.7752681939973</v>
       </c>
       <c r="S3" t="n">
-        <v>159.265813579204</v>
+        <v>152.3897678374925</v>
       </c>
       <c r="T3" t="n">
-        <v>197.4701474515776</v>
+        <v>191.4137263622781</v>
       </c>
       <c r="U3" t="n">
         <v>225.8974008854921</v>
@@ -27542,22 +27542,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>142.5590519289129</v>
+        <v>141.7394272765009</v>
       </c>
       <c r="E4" t="n">
         <v>139.5579169048577</v>
       </c>
       <c r="F4" t="n">
-        <v>138.5450022812198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>160.554473792344</v>
+        <v>167.4305195340554</v>
       </c>
       <c r="H4" t="n">
         <v>157.2441751595628</v>
       </c>
       <c r="I4" t="n">
-        <v>138.5959194806567</v>
+        <v>132.5394983913573</v>
       </c>
       <c r="J4" t="n">
         <v>53.73467053135825</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.2311755918857</v>
+        <v>32.35512985017427</v>
       </c>
       <c r="R4" t="n">
         <v>152.0930796362713</v>
@@ -27621,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>348.6266205313835</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>375.0543243305503</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>326.0638306487645</v>
       </c>
       <c r="I5" t="n">
-        <v>159.9911853124666</v>
+        <v>159.9911853124665</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>61.55448262857604</v>
+        <v>67.61090371787532</v>
       </c>
       <c r="S5" t="n">
-        <v>172.3036711234966</v>
+        <v>179.179716865208</v>
       </c>
       <c r="T5" t="n">
         <v>217.3634899794318</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159.6571379081559</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>140.5690198229273</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>138.1931666516724</v>
       </c>
       <c r="G6" t="n">
         <v>136.6428700422205</v>
       </c>
       <c r="H6" t="n">
-        <v>105.4686680943023</v>
+        <v>99.41224700500287</v>
       </c>
       <c r="I6" t="n">
-        <v>58.39742965456104</v>
+        <v>58.39742965456099</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.59983128818461</v>
+        <v>56.65625237748397</v>
       </c>
       <c r="S6" t="n">
-        <v>151.7929123911036</v>
+        <v>158.668958132815</v>
       </c>
       <c r="T6" t="n">
         <v>197.3406291150412</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>172.9559344402259</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>161.1904000093284</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27785,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>138.5450022812198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>160.5275346067714</v>
+        <v>167.4035803484828</v>
       </c>
       <c r="H7" t="n">
-        <v>157.0046613096538</v>
+        <v>150.1286155679423</v>
       </c>
       <c r="I7" t="n">
-        <v>137.7857846999829</v>
+        <v>130.9097389582714</v>
       </c>
       <c r="J7" t="n">
-        <v>51.8300701113762</v>
+        <v>51.83007011137613</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.9753861527119</v>
+        <v>30.09934041100038</v>
       </c>
       <c r="R7" t="n">
         <v>150.8817958922528</v>
       </c>
       <c r="S7" t="n">
-        <v>213.7798352903922</v>
+        <v>213.7798352903921</v>
       </c>
       <c r="T7" t="n">
         <v>225.4357936583844</v>
@@ -27833,7 +27833,7 @@
         <v>286.2869894104922</v>
       </c>
       <c r="V7" t="n">
-        <v>246.0812222345286</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>60.62832312804917</v>
+        <v>59.80869847563716</v>
       </c>
       <c r="S8" t="n">
-        <v>171.9676934168004</v>
+        <v>172.7873180692124</v>
       </c>
       <c r="T8" t="n">
         <v>217.2989483486666</v>
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>159.6571379081559</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>165.8324532466043</v>
       </c>
       <c r="D9" t="n">
-        <v>140.5690198229273</v>
+        <v>141.3886444753393</v>
       </c>
       <c r="E9" t="n">
         <v>150.7690347136895</v>
@@ -27952,7 +27952,7 @@
         <v>105.3924797881105</v>
       </c>
       <c r="I9" t="n">
-        <v>58.12582284093457</v>
+        <v>65.00186858264601</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.11003943421061</v>
+        <v>56.16646052351003</v>
       </c>
       <c r="S9" t="n">
         <v>158.5224288518331</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>161.1904000093284</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28034,7 +28034,7 @@
         <v>137.5868948890097</v>
       </c>
       <c r="J10" t="n">
-        <v>44.48644091744648</v>
+        <v>44.48644091744647</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>36.42158504966668</v>
+        <v>29.54553930795525</v>
       </c>
       <c r="R10" t="n">
         <v>150.5844231579502</v>
@@ -28070,16 +28070,16 @@
         <v>286.2866286671833</v>
       </c>
       <c r="V10" t="n">
-        <v>246.0812222345286</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>279.6469525948796</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>218.8336096473257</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>211.7086076103834</v>
       </c>
     </row>
     <row r="11">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C14" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D14" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E14" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F14" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G14" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H14" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I14" t="n">
         <v>12.38037836605491</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T14" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U14" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V14" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W14" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X14" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y14" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="J16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="K16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="L16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="M16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="N16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="O16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="P16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="R16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="S16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y16" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I17" t="n">
         <v>12.38037836605491</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221423</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221419</v>
       </c>
       <c r="R22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221457</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I26" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I29" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I32" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221338</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I35" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221059</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I38" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221093</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="41">
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.309505330599553</v>
+        <v>1.309505330599555</v>
       </c>
       <c r="H5" t="n">
-        <v>13.41097146700267</v>
+        <v>13.4109714670027</v>
       </c>
       <c r="I5" t="n">
-        <v>50.48470425793931</v>
+        <v>50.48470425793939</v>
       </c>
       <c r="J5" t="n">
-        <v>111.1426280529739</v>
+        <v>111.1426280529741</v>
       </c>
       <c r="K5" t="n">
-        <v>166.573988697253</v>
+        <v>166.5739886972533</v>
       </c>
       <c r="L5" t="n">
-        <v>206.6497624585891</v>
+        <v>206.6497624585895</v>
       </c>
       <c r="M5" t="n">
-        <v>229.9376778816389</v>
+        <v>229.9376778816393</v>
       </c>
       <c r="N5" t="n">
-        <v>233.6583099022049</v>
+        <v>233.6583099022053</v>
       </c>
       <c r="O5" t="n">
-        <v>220.6369162710556</v>
+        <v>220.636916271056</v>
       </c>
       <c r="P5" t="n">
-        <v>188.3085034218791</v>
+        <v>188.3085034218794</v>
       </c>
       <c r="Q5" t="n">
-        <v>141.4118437697825</v>
+        <v>141.4118437697828</v>
       </c>
       <c r="R5" t="n">
-        <v>82.25821422327422</v>
+        <v>82.25821422327436</v>
       </c>
       <c r="S5" t="n">
-        <v>29.84035272103734</v>
+        <v>29.84035272103739</v>
       </c>
       <c r="T5" t="n">
-        <v>5.732359584699545</v>
+        <v>5.732359584699555</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1047604264479642</v>
+        <v>0.1047604264479644</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7006471209901292</v>
+        <v>0.7006471209901304</v>
       </c>
       <c r="H6" t="n">
-        <v>6.766776142194143</v>
+        <v>6.766776142194155</v>
       </c>
       <c r="I6" t="n">
-        <v>24.12315745514261</v>
+        <v>24.12315745514265</v>
       </c>
       <c r="J6" t="n">
-        <v>66.19578786512444</v>
+        <v>66.19578786512456</v>
       </c>
       <c r="K6" t="n">
-        <v>113.1391449714631</v>
+        <v>113.1391449714633</v>
       </c>
       <c r="L6" t="n">
         <v>145.4304255215856</v>
       </c>
       <c r="M6" t="n">
-        <v>149.0100796637298</v>
+        <v>148.7322596337616</v>
       </c>
       <c r="N6" t="n">
-        <v>137.9399377950766</v>
+        <v>138.2177578250447</v>
       </c>
       <c r="O6" t="n">
         <v>149.4722901861559</v>
       </c>
       <c r="P6" t="n">
-        <v>133.7928699722291</v>
+        <v>133.7928699722294</v>
       </c>
       <c r="Q6" t="n">
-        <v>89.43699039165229</v>
+        <v>89.43699039165244</v>
       </c>
       <c r="R6" t="n">
-        <v>43.50158177515909</v>
+        <v>43.50158177515917</v>
       </c>
       <c r="S6" t="n">
-        <v>13.01421297102278</v>
+        <v>13.01421297102281</v>
       </c>
       <c r="T6" t="n">
-        <v>2.824099579780388</v>
+        <v>2.824099579780393</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04609520532829799</v>
+        <v>0.04609520532829807</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5873990099759063</v>
+        <v>0.5873990099759073</v>
       </c>
       <c r="H7" t="n">
-        <v>5.222511197785789</v>
+        <v>5.222511197785798</v>
       </c>
       <c r="I7" t="n">
-        <v>17.66469022727544</v>
+        <v>17.66469022727547</v>
       </c>
       <c r="J7" t="n">
-        <v>41.52911000529657</v>
+        <v>41.52911000529664</v>
       </c>
       <c r="K7" t="n">
-        <v>68.24508497720073</v>
+        <v>68.24508497720086</v>
       </c>
       <c r="L7" t="n">
-        <v>87.33021281041793</v>
+        <v>87.33021281041809</v>
       </c>
       <c r="M7" t="n">
-        <v>92.07746480922319</v>
+        <v>92.07746480922336</v>
       </c>
       <c r="N7" t="n">
-        <v>89.88806849931306</v>
+        <v>89.88806849931322</v>
       </c>
       <c r="O7" t="n">
-        <v>83.0261800645945</v>
+        <v>83.02618006459464</v>
       </c>
       <c r="P7" t="n">
-        <v>71.04324026108596</v>
+        <v>71.04324026108607</v>
       </c>
       <c r="Q7" t="n">
-        <v>49.18665709898249</v>
+        <v>49.18665709898257</v>
       </c>
       <c r="R7" t="n">
-        <v>26.41159548491665</v>
+        <v>26.4115954849167</v>
       </c>
       <c r="S7" t="n">
-        <v>10.23676274658011</v>
+        <v>10.23676274658013</v>
       </c>
       <c r="T7" t="n">
-        <v>2.509795769897054</v>
+        <v>2.509795769897058</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03203994599868584</v>
+        <v>0.03203994599868589</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31533,10 +31533,10 @@
         <v>208.9764679747476</v>
       </c>
       <c r="M8" t="n">
-        <v>232.5265860765229</v>
+        <v>232.526586076523</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2891093383023</v>
+        <v>236.2891093383024</v>
       </c>
       <c r="O8" t="n">
         <v>223.1211055778734</v>
@@ -31548,13 +31548,13 @@
         <v>143.0040242447794</v>
       </c>
       <c r="R8" t="n">
-        <v>83.18437372380107</v>
+        <v>83.18437372380109</v>
       </c>
       <c r="S8" t="n">
-        <v>30.17633042773354</v>
+        <v>30.17633042773355</v>
       </c>
       <c r="T8" t="n">
-        <v>5.796901215464773</v>
+        <v>5.796901215464774</v>
       </c>
       <c r="U8" t="n">
         <v>0.1059399422586366</v>
@@ -31597,13 +31597,13 @@
         <v>0.7085358284432286</v>
       </c>
       <c r="H9" t="n">
-        <v>6.842964448385919</v>
+        <v>6.84296444838592</v>
       </c>
       <c r="I9" t="n">
         <v>24.39476426876906</v>
       </c>
       <c r="J9" t="n">
-        <v>66.94109772147188</v>
+        <v>66.94109772147189</v>
       </c>
       <c r="K9" t="n">
         <v>114.4129982271682</v>
@@ -31612,10 +31612,10 @@
         <v>145.4304255215856</v>
       </c>
       <c r="M9" t="n">
-        <v>147.4073999482616</v>
+        <v>149.0100796637298</v>
       </c>
       <c r="N9" t="n">
-        <v>138.2177578250447</v>
+        <v>136.6150781095766</v>
       </c>
       <c r="O9" t="n">
         <v>149.4722901861559</v>
@@ -31627,7 +31627,7 @@
         <v>90.44397697812161</v>
       </c>
       <c r="R9" t="n">
-        <v>43.9913736291331</v>
+        <v>43.99137362913311</v>
       </c>
       <c r="S9" t="n">
         <v>13.1607422520047</v>
@@ -31676,22 +31676,22 @@
         <v>0.5940126373057265</v>
       </c>
       <c r="H10" t="n">
-        <v>5.281312357136372</v>
+        <v>5.281312357136373</v>
       </c>
       <c r="I10" t="n">
         <v>17.86358003824858</v>
       </c>
       <c r="J10" t="n">
-        <v>41.99669345751486</v>
+        <v>41.99669345751487</v>
       </c>
       <c r="K10" t="n">
-        <v>69.0134682251562</v>
+        <v>69.01346822515622</v>
       </c>
       <c r="L10" t="n">
         <v>88.31347882270775</v>
       </c>
       <c r="M10" t="n">
-        <v>93.11418095511492</v>
+        <v>93.11418095511493</v>
       </c>
       <c r="N10" t="n">
         <v>90.90013385243002</v>
@@ -31700,7 +31700,7 @@
         <v>83.96098622572218</v>
       </c>
       <c r="P10" t="n">
-        <v>71.84312842468529</v>
+        <v>71.8431284246853</v>
       </c>
       <c r="Q10" t="n">
         <v>49.7404582020277</v>
@@ -31852,19 +31852,19 @@
         <v>696.5971294879671</v>
       </c>
       <c r="N12" t="n">
-        <v>663.5877533333036</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O12" t="n">
-        <v>654.1164009578285</v>
+        <v>366.6975250682004</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S12" t="n">
         <v>51.06610426486998</v>
@@ -32083,19 +32083,19 @@
         <v>443.9435090247272</v>
       </c>
       <c r="L15" t="n">
-        <v>545.490604532799</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M15" t="n">
         <v>696.5971294879671</v>
       </c>
       <c r="N15" t="n">
-        <v>715.0339827160632</v>
+        <v>272.5760810583988</v>
       </c>
       <c r="O15" t="n">
         <v>654.1164009578285</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32317,13 +32317,13 @@
         <v>259.7437903115857</v>
       </c>
       <c r="K18" t="n">
-        <v>443.9435090247272</v>
+        <v>392.4972796419678</v>
       </c>
       <c r="L18" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M18" t="n">
-        <v>645.1509001052077</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N18" t="n">
         <v>715.0339827160632</v>
@@ -32466,46 +32466,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H20" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I20" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R20" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S20" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T20" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,34 +32545,34 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H21" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J21" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K21" t="n">
-        <v>443.9435090247271</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>545.4906045327996</v>
+        <v>249.6234851251514</v>
       </c>
       <c r="M21" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N21" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32627,7 +32627,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I22" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J22" t="n">
         <v>162.9549067838147</v>
@@ -32636,13 +32636,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L22" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M22" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N22" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O22" t="n">
         <v>325.7840929246177</v>
@@ -32657,10 +32657,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32703,46 +32703,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H23" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I23" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L23" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N23" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R23" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S23" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T23" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,31 +32782,31 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H24" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J24" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K24" t="n">
-        <v>443.9435090247271</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L24" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M24" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N24" t="n">
-        <v>663.587753333304</v>
+        <v>272.5760810583988</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32864,7 +32864,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I25" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J25" t="n">
         <v>162.9549067838147</v>
@@ -32873,13 +32873,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L25" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M25" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N25" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O25" t="n">
         <v>325.7840929246177</v>
@@ -32894,10 +32894,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -32940,46 +32940,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H26" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I26" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J26" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K26" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L26" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M26" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N26" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O26" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P26" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q26" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R26" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S26" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T26" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,31 +33019,31 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H27" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I27" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J27" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K27" t="n">
-        <v>443.9435090247271</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L27" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M27" t="n">
-        <v>645.1509001052082</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N27" t="n">
-        <v>715.033982716063</v>
+        <v>272.5760810583988</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33101,7 +33101,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I28" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J28" t="n">
         <v>162.9549067838147</v>
@@ -33110,13 +33110,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L28" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M28" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N28" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O28" t="n">
         <v>325.7840929246177</v>
@@ -33131,10 +33131,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S28" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T28" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U28" t="n">
         <v>0.1257206430118155</v>
@@ -33177,46 +33177,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H29" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I29" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J29" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K29" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L29" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M29" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N29" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O29" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P29" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q29" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R29" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S29" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T29" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,31 +33256,31 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H30" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I30" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J30" t="n">
-        <v>208.2975609288268</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K30" t="n">
-        <v>443.9435090247271</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L30" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M30" t="n">
-        <v>696.597129487967</v>
+        <v>254.1392278303028</v>
       </c>
       <c r="N30" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33338,7 +33338,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I31" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J31" t="n">
         <v>162.9549067838147</v>
@@ -33347,13 +33347,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L31" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M31" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N31" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O31" t="n">
         <v>325.7840929246177</v>
@@ -33368,10 +33368,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S31" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T31" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U31" t="n">
         <v>0.1257206430118155</v>
@@ -33414,46 +33414,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H32" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I32" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J32" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K32" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L32" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M32" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N32" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O32" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P32" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q32" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R32" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S32" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T32" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,31 +33493,31 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H33" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I33" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J33" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K33" t="n">
-        <v>443.9435090247271</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L33" t="n">
-        <v>545.4906045327996</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M33" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N33" t="n">
-        <v>715.033982716063</v>
+        <v>272.5760810583988</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33575,7 +33575,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I34" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J34" t="n">
         <v>162.9549067838147</v>
@@ -33584,13 +33584,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L34" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M34" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N34" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O34" t="n">
         <v>325.7840929246177</v>
@@ -33605,10 +33605,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S34" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T34" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U34" t="n">
         <v>0.1257206430118155</v>
@@ -33651,46 +33651,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H35" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I35" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J35" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K35" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L35" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M35" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N35" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O35" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P35" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q35" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R35" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S35" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T35" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,31 +33730,31 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H36" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I36" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J36" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K36" t="n">
-        <v>392.4972796419684</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L36" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M36" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N36" t="n">
-        <v>715.033982716063</v>
+        <v>272.5760810583988</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33812,7 +33812,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I37" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J37" t="n">
         <v>162.9549067838147</v>
@@ -33821,13 +33821,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L37" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M37" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N37" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O37" t="n">
         <v>325.7840929246177</v>
@@ -33842,10 +33842,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S37" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T37" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U37" t="n">
         <v>0.1257206430118155</v>
@@ -33888,46 +33888,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H38" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I38" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J38" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K38" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L38" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M38" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N38" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O38" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P38" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q38" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R38" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S38" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T38" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,31 +33967,31 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H39" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I39" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J39" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K39" t="n">
-        <v>443.9435090247271</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L39" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M39" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N39" t="n">
-        <v>663.587753333304</v>
+        <v>272.5760810583988</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34049,7 +34049,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I40" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J40" t="n">
         <v>162.9549067838147</v>
@@ -34058,13 +34058,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L40" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M40" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N40" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O40" t="n">
         <v>325.7840929246177</v>
@@ -34079,10 +34079,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S40" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T40" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U40" t="n">
         <v>0.1257206430118155</v>
@@ -34125,46 +34125,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H41" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I41" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J41" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K41" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L41" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M41" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N41" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O41" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P41" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q41" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R41" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S41" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T41" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,31 +34204,31 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H42" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I42" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J42" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K42" t="n">
-        <v>443.9435090247271</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L42" t="n">
-        <v>545.4906045327996</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M42" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N42" t="n">
-        <v>715.033982716063</v>
+        <v>272.5760810583988</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34286,7 +34286,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I43" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J43" t="n">
         <v>162.9549067838147</v>
@@ -34295,13 +34295,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L43" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M43" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N43" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O43" t="n">
         <v>325.7840929246177</v>
@@ -34316,10 +34316,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S43" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T43" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U43" t="n">
         <v>0.1257206430118155</v>
@@ -34362,46 +34362,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H44" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I44" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J44" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K44" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L44" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M44" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N44" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O44" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565674</v>
       </c>
       <c r="P44" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q44" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R44" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S44" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T44" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,31 +34441,31 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H45" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I45" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K45" t="n">
-        <v>443.9435090247271</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L45" t="n">
-        <v>596.9368339155585</v>
+        <v>154.4789322578942</v>
       </c>
       <c r="M45" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N45" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P45" t="n">
-        <v>215.4343416764904</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34523,7 +34523,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I46" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J46" t="n">
         <v>162.9549067838147</v>
@@ -34532,13 +34532,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L46" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M46" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N46" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O46" t="n">
         <v>325.7840929246177</v>
@@ -34553,10 +34553,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S46" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T46" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U46" t="n">
         <v>0.1257206430118155</v>
@@ -34701,22 +34701,22 @@
         <v>6.876045741711437</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.598225711743297</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="M2" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>6.598225711743297</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="N4" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O4" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N5" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>6.598225711743297</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35023,10 +35023,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M6" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="N6" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6.598225711743297</v>
       </c>
       <c r="O6" t="n">
         <v>6.876045741711437</v>
@@ -35108,10 +35108,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O7" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="P7" t="n">
         <v>6.598225711743297</v>
-      </c>
-      <c r="P7" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,13 +35187,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>6.598225711743297</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35260,10 +35260,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M9" t="n">
-        <v>5.273366026243322</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N9" t="n">
-        <v>6.876045741711437</v>
+        <v>5.273366026243323</v>
       </c>
       <c r="O9" t="n">
         <v>6.876045741711437</v>
@@ -35336,7 +35336,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>6.598225711743296</v>
@@ -35345,7 +35345,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P10" t="n">
         <v>6.876045741711437</v>
@@ -35500,19 +35500,19 @@
         <v>554.4630955659488</v>
       </c>
       <c r="N12" t="n">
-        <v>532.2460412499703</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O12" t="n">
-        <v>511.5201565133841</v>
+        <v>224.101280623756</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>25.01512932375749</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>306.1020700503682</v>
       </c>
       <c r="L15" t="n">
-        <v>406.9362247529248</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M15" t="n">
         <v>554.4630955659488</v>
       </c>
       <c r="N15" t="n">
-        <v>583.6922706327299</v>
+        <v>141.2343689750655</v>
       </c>
       <c r="O15" t="n">
         <v>511.5201565133841</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K16" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L16" t="n">
         <v>401.8727935817349</v>
@@ -35965,13 +35965,13 @@
         <v>132.906163644919</v>
       </c>
       <c r="K18" t="n">
-        <v>306.1020700503682</v>
+        <v>254.6558406676088</v>
       </c>
       <c r="L18" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M18" t="n">
-        <v>503.0168661831893</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N18" t="n">
         <v>583.6922706327299</v>
@@ -36044,10 +36044,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817353</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
         <v>432.4942538895099</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L20" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P20" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>132.9061636449189</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K21" t="n">
-        <v>306.1020700503681</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>406.9362247529255</v>
+        <v>111.0691053452772</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O21" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L22" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P22" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641584</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L23" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N23" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P23" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>132.9061636449189</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K24" t="n">
-        <v>306.1020700503681</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L24" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M24" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N24" t="n">
-        <v>532.2460412499707</v>
+        <v>141.2343689750655</v>
       </c>
       <c r="O24" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L25" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P25" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553066</v>
       </c>
       <c r="Q25" t="n">
         <v>138.4502995641581</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K26" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L26" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M26" t="n">
-        <v>671.8997542381579</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N26" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O26" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P26" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q26" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R26" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>132.9061636449189</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K27" t="n">
-        <v>306.1020700503681</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L27" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M27" t="n">
-        <v>503.0168661831898</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327297</v>
+        <v>141.2343689750655</v>
       </c>
       <c r="O27" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>255.063527911684</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K29" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L29" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M29" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N29" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O29" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P29" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q29" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R29" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>81.45993426216009</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K30" t="n">
-        <v>306.1020700503681</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L30" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M30" t="n">
-        <v>554.4630955659486</v>
+        <v>112.0051939082845</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O30" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K32" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L32" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M32" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N32" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O32" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P32" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q32" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R32" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>132.9061636449189</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K33" t="n">
-        <v>306.1020700503681</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L33" t="n">
-        <v>406.9362247529255</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M33" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N33" t="n">
-        <v>583.6922706327297</v>
+        <v>141.2343689750655</v>
       </c>
       <c r="O33" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37241,7 +37241,7 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908707</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P34" t="n">
         <v>307.6533340553059</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K35" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L35" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M35" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N35" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O35" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P35" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q35" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R35" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>132.9061636449189</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K36" t="n">
-        <v>254.6558406676093</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L36" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M36" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N36" t="n">
-        <v>583.6922706327297</v>
+        <v>141.2343689750655</v>
       </c>
       <c r="O36" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414979</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L37" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895065</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010909</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908714</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P37" t="n">
-        <v>307.6533340553061</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K38" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L38" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M38" t="n">
-        <v>671.899754238157</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N38" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O38" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P38" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q38" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R38" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>132.9061636449189</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K39" t="n">
-        <v>306.1020700503681</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L39" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M39" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N39" t="n">
-        <v>532.2460412499707</v>
+        <v>141.2343689750655</v>
       </c>
       <c r="O39" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414979</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L40" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
-        <v>432.49425388951</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010909</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908714</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P40" t="n">
-        <v>307.6533340553029</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K41" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L41" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M41" t="n">
-        <v>671.8997542381571</v>
+        <v>671.899754238157</v>
       </c>
       <c r="N41" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O41" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P41" t="n">
-        <v>507.6654448276938</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q41" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R41" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>132.9061636449189</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K42" t="n">
-        <v>306.1020700503681</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L42" t="n">
-        <v>406.9362247529255</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M42" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N42" t="n">
-        <v>583.6922706327297</v>
+        <v>141.2343689750655</v>
       </c>
       <c r="O42" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>69.59572666714189</v>
+        <v>69.59572666714192</v>
       </c>
       <c r="K43" t="n">
         <v>245.5154777892838</v>
       </c>
       <c r="L43" t="n">
-        <v>370.2625912295209</v>
+        <v>370.262591229521</v>
       </c>
       <c r="M43" t="n">
-        <v>400.8840515372959</v>
+        <v>400.884051537296</v>
       </c>
       <c r="N43" t="n">
         <v>396.8414363488769</v>
       </c>
       <c r="O43" t="n">
-        <v>350.3692208386573</v>
+        <v>350.3692208386574</v>
       </c>
       <c r="P43" t="n">
         <v>276.043131703092</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K44" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L44" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M44" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N44" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O44" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348807</v>
       </c>
       <c r="P44" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q44" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R44" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K45" t="n">
-        <v>306.1020700503681</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L45" t="n">
-        <v>458.3824541356843</v>
+        <v>15.92455247802001</v>
       </c>
       <c r="M45" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N45" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O45" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P45" t="n">
-        <v>81.45993426216013</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>69.59572666714189</v>
+        <v>69.59572666714192</v>
       </c>
       <c r="K46" t="n">
         <v>245.5154777892838</v>
       </c>
       <c r="L46" t="n">
-        <v>370.2625912295209</v>
+        <v>370.262591229521</v>
       </c>
       <c r="M46" t="n">
-        <v>400.8840515372959</v>
+        <v>400.884051537296</v>
       </c>
       <c r="N46" t="n">
         <v>396.8414363488769</v>
       </c>
       <c r="O46" t="n">
-        <v>350.3692208386573</v>
+        <v>350.3692208386574</v>
       </c>
       <c r="P46" t="n">
         <v>276.043131703092</v>
